--- a/Jogos_do_Dia/2023-02-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -646,13 +646,13 @@
         <v>43</v>
       </c>
       <c r="F2">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3.77</v>
+        <v>3.25</v>
       </c>
       <c r="H2">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -667,10 +667,10 @@
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>1.79</v>
+        <v>2.01</v>
       </c>
       <c r="N2">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="O2">
         <v>1.37</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>44</v>
       </c>
       <c r="F3">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="G3">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H3">
-        <v>3.87</v>
+        <v>3.6</v>
       </c>
       <c r="I3">
         <v>1.07</v>
@@ -771,7 +771,7 @@
         <v>2.7</v>
       </c>
       <c r="M3">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N3">
         <v>1.62</v>
@@ -798,10 +798,10 @@
         <v>1.77</v>
       </c>
       <c r="V3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1.6</v>
@@ -854,13 +854,13 @@
         <v>45</v>
       </c>
       <c r="F4">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="G4">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H4">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
         <v>1.08</v>
@@ -875,10 +875,10 @@
         <v>2.63</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="N4">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -958,13 +958,13 @@
         <v>46</v>
       </c>
       <c r="F5">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G5">
         <v>3.2</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -979,10 +979,10 @@
         <v>2.9</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N5">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O5">
         <v>1.46</v>
@@ -1030,7 +1030,7 @@
         <v>3.16</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE5">
         <v>1.64</v>
@@ -1042,7 +1042,7 @@
         <v>2.65</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1062,13 +1062,13 @@
         <v>47</v>
       </c>
       <c r="F6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>3.1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
       </c>
       <c r="I6">
         <v>1.06</v>
@@ -1083,10 +1083,10 @@
         <v>3.25</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O6">
         <v>1.4</v>
